--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3077201.167140795</v>
+        <v>3074983.990701796</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7009117.172697623</v>
+        <v>7009117.172697621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8754565.243157361</v>
+        <v>8754565.243157363</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>414.0544001708697</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.6902672888099</v>
       </c>
       <c r="I2" t="n">
-        <v>3.730425073996277</v>
+        <v>162.349364105617</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>71.4532472394433</v>
+        <v>71.45324723944302</v>
       </c>
       <c r="S2" t="n">
-        <v>180.5735823537994</v>
+        <v>180.5735823537993</v>
       </c>
       <c r="T2" t="n">
         <v>217.6312528396099</v>
@@ -716,7 +716,7 @@
         <v>251.2457859202953</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>355.1068439377559</v>
       </c>
     </row>
     <row r="3">
@@ -741,19 +741,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.4907302153054</v>
+        <v>136.6755978001917</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.7847493357609</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.68824422766019</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>159.2768618828501</v>
+        <v>159.27686188285</v>
       </c>
       <c r="T3" t="n">
         <v>197.4725449465128</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>166.6013379750843</v>
       </c>
     </row>
     <row r="4">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>152.1155015320358</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2884860206497</v>
       </c>
       <c r="V4" t="n">
-        <v>123.7197392730187</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>129.6100604614668</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>65.11685673997613</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>32.56842626327222</v>
       </c>
     </row>
     <row r="6">
@@ -987,7 +987,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
         <v>104.3883541553076</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>42.93165166918628</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>74.24596078692618</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>231.4408706859778</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.3524204098381</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>164.5529311757001</v>
+        <v>110.6977437732684</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>73.02207085098006</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>136.0325688578951</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>163.6898441249709</v>
+        <v>13.21455103355427</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2059,7 +2059,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,7 +2175,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247745</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>31.00319170731896</v>
       </c>
       <c r="U22" t="n">
-        <v>270.0697021486469</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.01006515217569</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>214.8467271449453</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2716,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>32.83323659136484</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>203.4068132192027</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S31" t="n">
-        <v>173.6268892744755</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>13.89072837997191</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C34" t="n">
-        <v>130.6600641933996</v>
+        <v>3.129982764491174</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E34" t="n">
         <v>118.0376296177325</v>
       </c>
       <c r="F34" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I34" t="n">
-        <v>67.95608738100148</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>60.53581964121069</v>
       </c>
       <c r="S34" t="n">
         <v>161.3726923026053</v>
@@ -3253,7 +3253,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y34" t="n">
-        <v>190.1883203232582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>266.2114313584838</v>
       </c>
       <c r="I35" t="n">
-        <v>13.18059674408933</v>
+        <v>13.18059674408931</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.79142875933923</v>
+        <v>80.7914287593392</v>
       </c>
       <c r="T35" t="n">
         <v>175.5216371107835</v>
       </c>
       <c r="U35" t="n">
-        <v>222.5988389300654</v>
+        <v>222.5988389300653</v>
       </c>
       <c r="V35" t="n">
-        <v>299.3559254412983</v>
+        <v>299.3559254413001</v>
       </c>
       <c r="W35" t="n">
         <v>320.8446356885764</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.4356471531007</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>138.8504880697912</v>
@@ -3430,7 +3430,7 @@
         <v>120.2191399893757</v>
       </c>
       <c r="E37" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>117.0247149940946</v>
@@ -3439,10 +3439,10 @@
         <v>137.6294752301916</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3586818854842</v>
+        <v>10.85450541466613</v>
       </c>
       <c r="I37" t="n">
-        <v>67.95608738100147</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>60.53581964121071</v>
+        <v>60.53581964121069</v>
       </c>
       <c r="S37" t="n">
         <v>161.3726923026053</v>
@@ -3484,10 +3484,10 @@
         <v>223.7413102949914</v>
       </c>
       <c r="W37" t="n">
-        <v>12.50644704530203</v>
+        <v>258.1266653077544</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>197.3133223602005</v>
       </c>
       <c r="Y37" t="n">
         <v>190.1883203232582</v>
@@ -3509,10 +3509,10 @@
         <v>326.2867085918463</v>
       </c>
       <c r="E38" t="n">
-        <v>353.5340370434251</v>
+        <v>353.5340370434271</v>
       </c>
       <c r="F38" t="n">
-        <v>378.4797127128758</v>
+        <v>378.4797127128748</v>
       </c>
       <c r="G38" t="n">
         <v>382.5253926246168</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.79142875933923</v>
+        <v>80.7914287593392</v>
       </c>
       <c r="T38" t="n">
         <v>175.5216371107835</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3667,19 +3667,19 @@
         <v>120.2191399893757</v>
       </c>
       <c r="E40" t="n">
-        <v>62.60573167853779</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>137.6294752301916</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3586818854842</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I40" t="n">
-        <v>67.95608738100148</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>191.1526162473326</v>
       </c>
       <c r="U40" t="n">
-        <v>257.8155051767762</v>
+        <v>240.1326294892086</v>
       </c>
       <c r="V40" t="n">
         <v>223.7413102949914</v>
@@ -3724,7 +3724,7 @@
         <v>258.1266653077544</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>197.3133223602005</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.79142875933923</v>
+        <v>80.7914287593392</v>
       </c>
       <c r="T41" t="n">
-        <v>175.5216371107835</v>
+        <v>175.5216371107851</v>
       </c>
       <c r="U41" t="n">
         <v>222.5988389300653</v>
       </c>
       <c r="V41" t="n">
-        <v>299.3559254412992</v>
+        <v>299.3559254412983</v>
       </c>
       <c r="W41" t="n">
         <v>320.8446356885764</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D43" t="n">
-        <v>51.19843204834092</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G43" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.3586818854842</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I43" t="n">
-        <v>67.95608738100147</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>258.1266653077544</v>
       </c>
       <c r="X43" t="n">
-        <v>197.3133223602005</v>
+        <v>78.00297396647342</v>
       </c>
       <c r="Y43" t="n">
         <v>190.1883203232582</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.79142875933923</v>
+        <v>80.7914287593392</v>
       </c>
       <c r="T44" t="n">
         <v>175.5216371107835</v>
@@ -4034,7 +4034,7 @@
         <v>222.5988389300653</v>
       </c>
       <c r="V44" t="n">
-        <v>299.3559254412992</v>
+        <v>299.3559254412983</v>
       </c>
       <c r="W44" t="n">
         <v>320.8446356885764</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247751</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C46" t="n">
         <v>138.8504880697912</v>
@@ -4147,13 +4147,13 @@
         <v>117.0247149940946</v>
       </c>
       <c r="G46" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3586818854842</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>67.95608738100148</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y46" t="n">
-        <v>18.90956684308149</v>
+        <v>189.4181641866584</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1266.475033188027</v>
+        <v>966.8576960649647</v>
       </c>
       <c r="C2" t="n">
-        <v>1266.475033188027</v>
+        <v>966.8576960649647</v>
       </c>
       <c r="D2" t="n">
-        <v>1266.475033188027</v>
+        <v>966.8576960649647</v>
       </c>
       <c r="E2" t="n">
-        <v>880.6867805897823</v>
+        <v>966.8576960649647</v>
       </c>
       <c r="F2" t="n">
-        <v>469.7008758001747</v>
+        <v>959.9121953157612</v>
       </c>
       <c r="G2" t="n">
-        <v>51.46410795081135</v>
+        <v>541.6754274663979</v>
       </c>
       <c r="H2" t="n">
-        <v>51.46410795081135</v>
+        <v>211.6852584878021</v>
       </c>
       <c r="I2" t="n">
-        <v>47.69600181546158</v>
+        <v>47.69600181546168</v>
       </c>
       <c r="J2" t="n">
-        <v>140.7577663105055</v>
+        <v>140.7577663105059</v>
       </c>
       <c r="K2" t="n">
-        <v>400.9780317624616</v>
+        <v>400.9780317624626</v>
       </c>
       <c r="L2" t="n">
-        <v>776.0809088477182</v>
+        <v>776.0809088477199</v>
       </c>
       <c r="M2" t="n">
-        <v>1210.061679664838</v>
+        <v>1210.06167966484</v>
       </c>
       <c r="N2" t="n">
-        <v>1636.432715520892</v>
+        <v>1636.432715520895</v>
       </c>
       <c r="O2" t="n">
-        <v>1993.855156389988</v>
+        <v>1993.855156389992</v>
       </c>
       <c r="P2" t="n">
-        <v>2261.232557503802</v>
+        <v>2261.232557503807</v>
       </c>
       <c r="Q2" t="n">
-        <v>2384.800090773079</v>
+        <v>2384.800090773084</v>
       </c>
       <c r="R2" t="n">
-        <v>2312.62509356152</v>
+        <v>2312.625093561525</v>
       </c>
       <c r="S2" t="n">
-        <v>2130.227535628389</v>
+        <v>2130.227535628395</v>
       </c>
       <c r="T2" t="n">
-        <v>1910.397987305551</v>
+        <v>1910.397987305557</v>
       </c>
       <c r="U2" t="n">
-        <v>1656.614365163838</v>
+        <v>1656.614365163844</v>
       </c>
       <c r="V2" t="n">
-        <v>1656.614365163838</v>
+        <v>1325.551477820274</v>
       </c>
       <c r="W2" t="n">
-        <v>1656.614365163838</v>
+        <v>1325.551477820274</v>
       </c>
       <c r="X2" t="n">
-        <v>1656.614365163838</v>
+        <v>1325.551477820274</v>
       </c>
       <c r="Y2" t="n">
-        <v>1266.475033188027</v>
+        <v>966.8576960649647</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>663.7702665148615</v>
+        <v>762.5274402824223</v>
       </c>
       <c r="C3" t="n">
-        <v>489.3172372337345</v>
+        <v>588.0744110012953</v>
       </c>
       <c r="D3" t="n">
-        <v>489.3172372337345</v>
+        <v>439.140001340044</v>
       </c>
       <c r="E3" t="n">
-        <v>330.079782228279</v>
+        <v>439.140001340044</v>
       </c>
       <c r="F3" t="n">
-        <v>183.545224255164</v>
+        <v>292.605443366929</v>
       </c>
       <c r="G3" t="n">
-        <v>47.69600181546158</v>
+        <v>154.5492839727959</v>
       </c>
       <c r="H3" t="n">
-        <v>47.69600181546158</v>
+        <v>47.69600181546168</v>
       </c>
       <c r="I3" t="n">
-        <v>47.69600181546158</v>
+        <v>47.69600181546168</v>
       </c>
       <c r="J3" t="n">
-        <v>47.69600181546158</v>
+        <v>109.4295715287959</v>
       </c>
       <c r="K3" t="n">
-        <v>138.0951567665449</v>
+        <v>341.5629180620091</v>
       </c>
       <c r="L3" t="n">
-        <v>511.6314845015172</v>
+        <v>715.099245796982</v>
       </c>
       <c r="M3" t="n">
-        <v>999.5099820381843</v>
+        <v>1202.97774333365</v>
       </c>
       <c r="N3" t="n">
-        <v>1516.008185064326</v>
+        <v>1719.475946359792</v>
       </c>
       <c r="O3" t="n">
-        <v>1922.087456467725</v>
+        <v>2125.555217763192</v>
       </c>
       <c r="P3" t="n">
-        <v>2230.998804672512</v>
+        <v>2230.998804672517</v>
       </c>
       <c r="Q3" t="n">
-        <v>2384.800090773079</v>
+        <v>2384.800090773084</v>
       </c>
       <c r="R3" t="n">
-        <v>2325.519035997665</v>
+        <v>2384.800090773084</v>
       </c>
       <c r="S3" t="n">
-        <v>2164.633316924079</v>
+        <v>2223.914371699498</v>
       </c>
       <c r="T3" t="n">
-        <v>1965.166099806389</v>
+        <v>2024.447154581808</v>
       </c>
       <c r="U3" t="n">
-        <v>1736.986867465361</v>
+        <v>1796.26792224078</v>
       </c>
       <c r="V3" t="n">
-        <v>1501.834759233618</v>
+        <v>1561.115814009037</v>
       </c>
       <c r="W3" t="n">
-        <v>1247.597402505416</v>
+        <v>1306.878457280836</v>
       </c>
       <c r="X3" t="n">
-        <v>1039.745902299883</v>
+        <v>1099.026957075303</v>
       </c>
       <c r="Y3" t="n">
-        <v>831.9856035349296</v>
+        <v>930.7427773024904</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.69600181546158</v>
+        <v>47.69600181546168</v>
       </c>
       <c r="C4" t="n">
-        <v>47.69600181546158</v>
+        <v>47.69600181546168</v>
       </c>
       <c r="D4" t="n">
-        <v>47.69600181546158</v>
+        <v>47.69600181546168</v>
       </c>
       <c r="E4" t="n">
-        <v>47.69600181546158</v>
+        <v>47.69600181546168</v>
       </c>
       <c r="F4" t="n">
-        <v>47.69600181546158</v>
+        <v>47.69600181546168</v>
       </c>
       <c r="G4" t="n">
-        <v>47.69600181546158</v>
+        <v>47.69600181546168</v>
       </c>
       <c r="H4" t="n">
-        <v>47.69600181546158</v>
+        <v>47.69600181546168</v>
       </c>
       <c r="I4" t="n">
-        <v>47.69600181546158</v>
+        <v>47.69600181546168</v>
       </c>
       <c r="J4" t="n">
-        <v>47.69600181546158</v>
+        <v>47.69600181546168</v>
       </c>
       <c r="K4" t="n">
-        <v>90.05593719627238</v>
+        <v>90.05593719627272</v>
       </c>
       <c r="L4" t="n">
-        <v>199.7885050713612</v>
+        <v>199.7885050713619</v>
       </c>
       <c r="M4" t="n">
-        <v>325.8752353488323</v>
+        <v>325.8752353488334</v>
       </c>
       <c r="N4" t="n">
-        <v>454.3985214198574</v>
+        <v>454.3985214198588</v>
       </c>
       <c r="O4" t="n">
-        <v>557.0942826886053</v>
+        <v>557.0942826886069</v>
       </c>
       <c r="P4" t="n">
-        <v>621.4475654661188</v>
+        <v>621.4475654661206</v>
       </c>
       <c r="Q4" t="n">
-        <v>621.4475654661188</v>
+        <v>621.4475654661206</v>
       </c>
       <c r="R4" t="n">
-        <v>621.4475654661188</v>
+        <v>467.7955437165895</v>
       </c>
       <c r="S4" t="n">
-        <v>621.4475654661188</v>
+        <v>467.7955437165895</v>
       </c>
       <c r="T4" t="n">
-        <v>621.4475654661188</v>
+        <v>467.7955437165895</v>
       </c>
       <c r="U4" t="n">
-        <v>621.4475654661188</v>
+        <v>178.6152548068423</v>
       </c>
       <c r="V4" t="n">
-        <v>496.478131857009</v>
+        <v>178.6152548068423</v>
       </c>
       <c r="W4" t="n">
-        <v>496.478131857009</v>
+        <v>47.69600181546168</v>
       </c>
       <c r="X4" t="n">
-        <v>268.4885809589917</v>
+        <v>47.69600181546168</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.69600181546158</v>
+        <v>47.69600181546168</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1970.914677487028</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C5" t="n">
-        <v>1601.952160546617</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>1243.686461939866</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>857.8982093416219</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>446.9123045520143</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1970.914677487028</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="6">
@@ -4626,10 +4626,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961342</v>
@@ -4644,10 +4644,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598706</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4747,22 +4747,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>1216.807289433107</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>847.844772492695</v>
       </c>
       <c r="D8" t="n">
-        <v>135.884402556362</v>
+        <v>847.844772492695</v>
       </c>
       <c r="E8" t="n">
-        <v>135.884402556362</v>
+        <v>462.0565198944508</v>
       </c>
       <c r="F8" t="n">
-        <v>128.9389018071586</v>
+        <v>455.1110191452473</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>441.1876150838382</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4987,16 +4987,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>598.0446400632119</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
         <v>53.94298182036445</v>
@@ -5018,19 +5018,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5042,22 +5042,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>1923.729615463053</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903277</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5072,16 +5072,16 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
         <v>2760.816196754298</v>
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5133,25 +5133,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>361.8228945579559</v>
+        <v>508.0400813400983</v>
       </c>
       <c r="C13" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D13" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E13" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
         <v>192.8867116300491</v>
@@ -5200,7 +5200,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5218,31 +5218,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783402</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413795</v>
       </c>
       <c r="X13" t="n">
-        <v>543.4713593881957</v>
+        <v>508.0400813400983</v>
       </c>
       <c r="Y13" t="n">
-        <v>543.4713593881957</v>
+        <v>508.0400813400983</v>
       </c>
     </row>
     <row r="14">
@@ -5276,46 +5276,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O14" t="n">
-        <v>3517.878731871643</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P14" t="n">
-        <v>4231.233819318589</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4689.712021827577</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5355,13 +5355,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>578.4172407837242</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C16" t="n">
-        <v>409.4810578558173</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>409.4810578558173</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>409.4810578558172</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558173</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5455,31 +5455,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1792.753341335989</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T16" t="n">
-        <v>1570.986725905515</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U16" t="n">
-        <v>1281.883859031158</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V16" t="n">
-        <v>1027.199370825272</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W16" t="n">
-        <v>1027.199370825272</v>
+        <v>811.5418683145534</v>
       </c>
       <c r="X16" t="n">
-        <v>799.2098199272543</v>
+        <v>583.5523174165361</v>
       </c>
       <c r="Y16" t="n">
-        <v>578.4172407837242</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,22 +5513,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
         <v>4195.497197679678</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E19" t="n">
         <v>95.56103444839442</v>
@@ -5671,7 +5671,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
         <v>344.6708498442063</v>
@@ -5692,31 +5692,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208125</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838518</v>
+        <v>874.5404723472665</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858345</v>
+        <v>646.5509214492491</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.9043113423044</v>
+        <v>425.758342305719</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551631</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5747,49 +5747,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2536.153662641309</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>3515.905934867956</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075805</v>
+        <v>4018.878405747293</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4413.65277210447</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4661.939133860153</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5826,16 +5826,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>582.3166934139181</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5929,31 +5929,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1643.510769429139</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1354.407902554783</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1099.723414348896</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>810.3062443119354</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>582.3166934139181</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>582.3166934139181</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5990,19 +5990,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M23" t="n">
-        <v>2782.232616025903</v>
+        <v>2047.844055175503</v>
       </c>
       <c r="N23" t="n">
-        <v>3329.011433084685</v>
+        <v>3027.59632740215</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3907.560977731604</v>
       </c>
       <c r="P23" t="n">
         <v>4470.748294107237</v>
@@ -6014,25 +6014,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6057,7 +6057,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6066,13 +6066,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>877.1197344942213</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C25" t="n">
-        <v>708.1835515663145</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D25" t="n">
-        <v>558.0669121539787</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
-        <v>410.1538185715856</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W25" t="n">
-        <v>901.3723255570251</v>
+        <v>692.256258072335</v>
       </c>
       <c r="X25" t="n">
-        <v>901.3723255570251</v>
+        <v>464.2667071743176</v>
       </c>
       <c r="Y25" t="n">
-        <v>901.3723255570251</v>
+        <v>243.4741280307875</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,25 +6224,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1070.832524924162</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L26" t="n">
-        <v>1521.86673817257</v>
+        <v>1605.620901857741</v>
       </c>
       <c r="M26" t="n">
-        <v>2055.398642844495</v>
+        <v>2584.171204687569</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.177459903277</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188666</v>
@@ -6251,25 +6251,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6294,7 +6294,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6303,13 +6303,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839437</v>
+        <v>278.8425593065531</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839437</v>
+        <v>278.8425593065532</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839437</v>
+        <v>128.7259198942174</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839437</v>
+        <v>128.7259198942174</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6385,10 +6385,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>681.283603280323</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>460.4910241367928</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216428</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3554.371154826472</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6561,7 +6561,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6570,7 +6570,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
         <v>2043.809373447819</v>
@@ -6579,7 +6579,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C31" t="n">
         <v>95.56103444839442</v>
@@ -6607,28 +6607,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201817</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221643</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,25 +6698,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1898.858917622688</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294613</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353395</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3819.938960973982</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4214.71332733116</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6725,25 +6725,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E33" t="n">
         <v>487.9678785494859</v>
@@ -6768,7 +6768,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6783,7 +6783,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>533.6201215051908</v>
+        <v>664.5822434062496</v>
       </c>
       <c r="C34" t="n">
-        <v>401.6402586835749</v>
+        <v>661.4206446542383</v>
       </c>
       <c r="D34" t="n">
-        <v>401.6402586835749</v>
+        <v>539.9871699174952</v>
       </c>
       <c r="E34" t="n">
-        <v>282.4103297767743</v>
+        <v>420.7572410106946</v>
       </c>
       <c r="F34" t="n">
-        <v>164.2035469544565</v>
+        <v>420.7572410106946</v>
       </c>
       <c r="G34" t="n">
-        <v>164.2035469544565</v>
+        <v>281.7375690610061</v>
       </c>
       <c r="H34" t="n">
         <v>164.2035469544565</v>
@@ -6856,10 +6856,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K34" t="n">
-        <v>400.8955892413028</v>
+        <v>400.8955892413029</v>
       </c>
       <c r="L34" t="n">
         <v>745.5677573883472</v>
@@ -6877,31 +6877,31 @@
         <v>2075.519757842027</v>
       </c>
       <c r="Q34" t="n">
-        <v>2181.242423693089</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R34" t="n">
-        <v>2181.242423693089</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S34" t="n">
-        <v>2018.239704195508</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T34" t="n">
-        <v>1825.156253440627</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U34" t="n">
-        <v>1564.736551241863</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V34" t="n">
-        <v>1338.735227711569</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W34" t="n">
-        <v>1078.0012223502</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X34" t="n">
-        <v>878.6948361277755</v>
+        <v>817.5475435608968</v>
       </c>
       <c r="Y34" t="n">
-        <v>686.5854216598379</v>
+        <v>817.5475435608968</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2164.65364334605</v>
+        <v>2164.653643346051</v>
       </c>
       <c r="C35" t="n">
-        <v>1824.374291081231</v>
+        <v>1824.374291081232</v>
       </c>
       <c r="D35" t="n">
-        <v>1494.791757150073</v>
+        <v>1494.791757150074</v>
       </c>
       <c r="E35" t="n">
         <v>1137.686669227422</v>
@@ -6926,61 +6926,61 @@
         <v>755.383929113407</v>
       </c>
       <c r="G35" t="n">
-        <v>368.994643633996</v>
+        <v>368.9946436339961</v>
       </c>
       <c r="H35" t="n">
         <v>100.0942079183558</v>
       </c>
       <c r="I35" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341713</v>
       </c>
       <c r="J35" t="n">
-        <v>443.0652538127956</v>
+        <v>275.6596047924426</v>
       </c>
       <c r="K35" t="n">
-        <v>776.884627502642</v>
+        <v>930.3829369277421</v>
       </c>
       <c r="L35" t="n">
-        <v>1227.918840751051</v>
+        <v>1381.417150176151</v>
       </c>
       <c r="M35" t="n">
-        <v>1761.450745422976</v>
+        <v>1914.949054848075</v>
       </c>
       <c r="N35" t="n">
-        <v>2308.229562481758</v>
+        <v>2461.727871906858</v>
       </c>
       <c r="O35" t="n">
-        <v>3043.114079483867</v>
+        <v>3341.692522236312</v>
       </c>
       <c r="P35" t="n">
-        <v>3756.469166930812</v>
+        <v>3821.528422605066</v>
       </c>
       <c r="Q35" t="n">
-        <v>4214.9473694398</v>
+        <v>4280.006625114054</v>
       </c>
       <c r="R35" t="n">
-        <v>4339.023691670855</v>
+        <v>4339.023691670856</v>
       </c>
       <c r="S35" t="n">
-        <v>4257.416187873542</v>
+        <v>4257.416187873544</v>
       </c>
       <c r="T35" t="n">
-        <v>4080.121604933357</v>
+        <v>4080.121604933359</v>
       </c>
       <c r="U35" t="n">
-        <v>3855.274292882786</v>
+        <v>3855.274292882788</v>
       </c>
       <c r="V35" t="n">
-        <v>3552.894570214807</v>
+        <v>3552.894570214808</v>
       </c>
       <c r="W35" t="n">
         <v>3228.809079620286</v>
       </c>
       <c r="X35" t="n">
-        <v>2884.026486034798</v>
+        <v>2884.026486034799</v>
       </c>
       <c r="Y35" t="n">
-        <v>2522.570318734579</v>
+        <v>2522.57031873458</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>961.8122118823422</v>
+        <v>961.8122118823424</v>
       </c>
       <c r="C36" t="n">
-        <v>787.3591826012153</v>
+        <v>787.3591826012154</v>
       </c>
       <c r="D36" t="n">
-        <v>638.424772939964</v>
+        <v>638.4247729399641</v>
       </c>
       <c r="E36" t="n">
-        <v>479.1873179345085</v>
+        <v>479.1873179345086</v>
       </c>
       <c r="F36" t="n">
-        <v>332.6527599613935</v>
+        <v>332.6527599613936</v>
       </c>
       <c r="G36" t="n">
-        <v>196.2896597940116</v>
+        <v>196.2896597940117</v>
       </c>
       <c r="H36" t="n">
-        <v>105.7877654318791</v>
+        <v>105.7877654318792</v>
       </c>
       <c r="I36" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341713</v>
       </c>
       <c r="J36" t="n">
-        <v>180.4577433240341</v>
+        <v>180.4577433240345</v>
       </c>
       <c r="K36" t="n">
-        <v>418.7219423043812</v>
+        <v>418.7219423043816</v>
       </c>
       <c r="L36" t="n">
-        <v>785.4201026170466</v>
+        <v>785.420102617047</v>
       </c>
       <c r="M36" t="n">
         <v>1232.696427839363</v>
@@ -7044,13 +7044,13 @@
         <v>2455.73966002057</v>
       </c>
       <c r="T36" t="n">
-        <v>2263.096659698425</v>
+        <v>2263.096659698426</v>
       </c>
       <c r="U36" t="n">
         <v>2035.028812832841</v>
       </c>
       <c r="V36" t="n">
-        <v>1799.876704601098</v>
+        <v>1799.876704601099</v>
       </c>
       <c r="W36" t="n">
         <v>1545.639347872897</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>911.0998851138932</v>
+        <v>616.6575684779818</v>
       </c>
       <c r="C37" t="n">
-        <v>770.8468668615789</v>
+        <v>476.4045502256677</v>
       </c>
       <c r="D37" t="n">
-        <v>649.4133921248357</v>
+        <v>354.9710754889246</v>
       </c>
       <c r="E37" t="n">
-        <v>530.1834632180352</v>
+        <v>354.9710754889246</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9766803957173</v>
+        <v>236.7642926666068</v>
       </c>
       <c r="G37" t="n">
-        <v>272.9570084460289</v>
+        <v>97.74462071691828</v>
       </c>
       <c r="H37" t="n">
-        <v>155.4229863394792</v>
+        <v>86.78047383341713</v>
       </c>
       <c r="I37" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341713</v>
       </c>
       <c r="J37" t="n">
-        <v>160.0154759789009</v>
+        <v>160.015475978901</v>
       </c>
       <c r="K37" t="n">
         <v>392.1150286263256</v>
@@ -7132,13 +7132,13 @@
         <v>1268.807374529712</v>
       </c>
       <c r="W37" t="n">
-        <v>1256.174599736478</v>
+        <v>1008.073369168344</v>
       </c>
       <c r="X37" t="n">
-        <v>1256.174599736478</v>
+        <v>808.7669829459194</v>
       </c>
       <c r="Y37" t="n">
-        <v>1064.06518526854</v>
+        <v>616.6575684779818</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2164.653643346052</v>
+        <v>2164.653643346053</v>
       </c>
       <c r="C38" t="n">
-        <v>1824.374291081233</v>
+        <v>1824.374291081234</v>
       </c>
       <c r="D38" t="n">
-        <v>1494.791757150075</v>
+        <v>1494.791757150076</v>
       </c>
       <c r="E38" t="n">
-        <v>1137.686669227423</v>
+        <v>1137.686669227422</v>
       </c>
       <c r="F38" t="n">
         <v>755.383929113407</v>
       </c>
       <c r="G38" t="n">
-        <v>368.994643633996</v>
+        <v>368.9946436339961</v>
       </c>
       <c r="H38" t="n">
         <v>100.0942079183558</v>
       </c>
       <c r="I38" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341713</v>
       </c>
       <c r="J38" t="n">
         <v>275.6596047924426</v>
       </c>
       <c r="K38" t="n">
-        <v>691.1111778956767</v>
+        <v>930.3829369277421</v>
       </c>
       <c r="L38" t="n">
-        <v>1555.629993549031</v>
+        <v>1735.081983301382</v>
       </c>
       <c r="M38" t="n">
-        <v>2089.161898220956</v>
+        <v>2268.613887973307</v>
       </c>
       <c r="N38" t="n">
-        <v>3068.914170447603</v>
+        <v>2815.392705032089</v>
       </c>
       <c r="O38" t="n">
-        <v>3571.88664132694</v>
+        <v>3318.365175911426</v>
       </c>
       <c r="P38" t="n">
-        <v>3966.661007684118</v>
+        <v>4031.720263358372</v>
       </c>
       <c r="Q38" t="n">
-        <v>4214.9473694398</v>
+        <v>4280.006625114054</v>
       </c>
       <c r="R38" t="n">
-        <v>4339.023691670855</v>
+        <v>4339.023691670856</v>
       </c>
       <c r="S38" t="n">
-        <v>4257.416187873543</v>
+        <v>4257.416187873544</v>
       </c>
       <c r="T38" t="n">
-        <v>4080.121604933358</v>
+        <v>4080.121604933359</v>
       </c>
       <c r="U38" t="n">
-        <v>3855.274292882787</v>
+        <v>3855.274292882788</v>
       </c>
       <c r="V38" t="n">
-        <v>3552.894570214809</v>
+        <v>3552.89457021481</v>
       </c>
       <c r="W38" t="n">
-        <v>3228.809079620287</v>
+        <v>3228.809079620288</v>
       </c>
       <c r="X38" t="n">
-        <v>2884.0264860348</v>
+        <v>2884.026486034801</v>
       </c>
       <c r="Y38" t="n">
-        <v>2522.570318734581</v>
+        <v>2522.570318734582</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>961.8122118823422</v>
+        <v>961.8122118823424</v>
       </c>
       <c r="C39" t="n">
-        <v>787.3591826012153</v>
+        <v>787.3591826012154</v>
       </c>
       <c r="D39" t="n">
-        <v>638.424772939964</v>
+        <v>638.4247729399641</v>
       </c>
       <c r="E39" t="n">
-        <v>479.1873179345085</v>
+        <v>479.1873179345086</v>
       </c>
       <c r="F39" t="n">
-        <v>332.6527599613935</v>
+        <v>332.6527599613936</v>
       </c>
       <c r="G39" t="n">
-        <v>196.2896597940116</v>
+        <v>196.2896597940117</v>
       </c>
       <c r="H39" t="n">
-        <v>105.7877654318791</v>
+        <v>105.7877654318792</v>
       </c>
       <c r="I39" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341713</v>
       </c>
       <c r="J39" t="n">
-        <v>180.4577433240344</v>
+        <v>180.4577433240345</v>
       </c>
       <c r="K39" t="n">
         <v>418.7219423043816</v>
@@ -7281,13 +7281,13 @@
         <v>2455.73966002057</v>
       </c>
       <c r="T39" t="n">
-        <v>2263.096659698425</v>
+        <v>2263.096659698426</v>
       </c>
       <c r="U39" t="n">
         <v>2035.028812832841</v>
       </c>
       <c r="V39" t="n">
-        <v>1799.876704601098</v>
+        <v>1799.876704601099</v>
       </c>
       <c r="W39" t="n">
         <v>1545.639347872897</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>855.1080690136964</v>
+        <v>673.6631733847748</v>
       </c>
       <c r="C40" t="n">
-        <v>714.8550507613821</v>
+        <v>533.4101551324605</v>
       </c>
       <c r="D40" t="n">
-        <v>593.421576024639</v>
+        <v>411.9766803957174</v>
       </c>
       <c r="E40" t="n">
-        <v>530.1834632180352</v>
+        <v>411.9766803957174</v>
       </c>
       <c r="F40" t="n">
         <v>411.9766803957174</v>
@@ -7327,13 +7327,13 @@
         <v>155.4229863394792</v>
       </c>
       <c r="I40" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341713</v>
       </c>
       <c r="J40" t="n">
         <v>160.015475978901</v>
       </c>
       <c r="K40" t="n">
-        <v>392.1150286263256</v>
+        <v>392.1150286263255</v>
       </c>
       <c r="L40" t="n">
         <v>736.7871967733699</v>
@@ -7348,7 +7348,7 @@
         <v>1806.019327094842</v>
       </c>
       <c r="P40" t="n">
-        <v>2066.739197227049</v>
+        <v>2066.73919722705</v>
       </c>
       <c r="Q40" t="n">
         <v>2172.461863078112</v>
@@ -7360,22 +7360,22 @@
         <v>1948.311851013652</v>
       </c>
       <c r="T40" t="n">
-        <v>1755.228400258771</v>
+        <v>1755.22840025877</v>
       </c>
       <c r="U40" t="n">
-        <v>1494.808698060007</v>
+        <v>1512.670188653509</v>
       </c>
       <c r="V40" t="n">
-        <v>1268.807374529712</v>
+        <v>1286.668865123215</v>
       </c>
       <c r="W40" t="n">
-        <v>1008.073369168344</v>
+        <v>1025.934859761847</v>
       </c>
       <c r="X40" t="n">
-        <v>1008.073369168344</v>
+        <v>826.628473539422</v>
       </c>
       <c r="Y40" t="n">
-        <v>1008.073369168344</v>
+        <v>826.628473539422</v>
       </c>
     </row>
     <row r="41">
@@ -7400,49 +7400,49 @@
         <v>755.383929113407</v>
       </c>
       <c r="G41" t="n">
-        <v>368.994643633996</v>
+        <v>368.9946436339961</v>
       </c>
       <c r="H41" t="n">
         <v>100.0942079183558</v>
       </c>
       <c r="I41" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341713</v>
       </c>
       <c r="J41" t="n">
         <v>275.6596047924426</v>
       </c>
       <c r="K41" t="n">
-        <v>609.478978482289</v>
+        <v>930.3829369277421</v>
       </c>
       <c r="L41" t="n">
-        <v>1060.513191730698</v>
+        <v>1794.901752581097</v>
       </c>
       <c r="M41" t="n">
-        <v>2039.063494560527</v>
+        <v>2328.433657253021</v>
       </c>
       <c r="N41" t="n">
-        <v>3018.815766787173</v>
+        <v>2875.212474311804</v>
       </c>
       <c r="O41" t="n">
-        <v>3571.88664132694</v>
+        <v>3378.184945191141</v>
       </c>
       <c r="P41" t="n">
-        <v>3966.661007684118</v>
+        <v>4031.720263358372</v>
       </c>
       <c r="Q41" t="n">
-        <v>4214.9473694398</v>
+        <v>4280.006625114054</v>
       </c>
       <c r="R41" t="n">
-        <v>4339.023691670855</v>
+        <v>4339.023691670856</v>
       </c>
       <c r="S41" t="n">
-        <v>4257.416187873543</v>
+        <v>4257.416187873544</v>
       </c>
       <c r="T41" t="n">
-        <v>4080.121604933358</v>
+        <v>4080.121604933357</v>
       </c>
       <c r="U41" t="n">
-        <v>3855.274292882787</v>
+        <v>3855.274292882786</v>
       </c>
       <c r="V41" t="n">
         <v>3552.894570214808</v>
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>961.8122118823422</v>
+        <v>961.8122118823424</v>
       </c>
       <c r="C42" t="n">
-        <v>787.3591826012153</v>
+        <v>787.3591826012154</v>
       </c>
       <c r="D42" t="n">
-        <v>638.424772939964</v>
+        <v>638.4247729399641</v>
       </c>
       <c r="E42" t="n">
-        <v>479.1873179345085</v>
+        <v>479.1873179345086</v>
       </c>
       <c r="F42" t="n">
-        <v>332.6527599613935</v>
+        <v>332.6527599613936</v>
       </c>
       <c r="G42" t="n">
-        <v>196.2896597940116</v>
+        <v>196.2896597940117</v>
       </c>
       <c r="H42" t="n">
-        <v>105.7877654318791</v>
+        <v>105.7877654318792</v>
       </c>
       <c r="I42" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341713</v>
       </c>
       <c r="J42" t="n">
-        <v>180.4577433240344</v>
+        <v>180.4577433240345</v>
       </c>
       <c r="K42" t="n">
         <v>418.7219423043816</v>
       </c>
       <c r="L42" t="n">
-        <v>785.4201026170466</v>
+        <v>785.420102617047</v>
       </c>
       <c r="M42" t="n">
         <v>1232.696427839363</v>
@@ -7518,13 +7518,13 @@
         <v>2455.73966002057</v>
       </c>
       <c r="T42" t="n">
-        <v>2263.096659698425</v>
+        <v>2263.096659698426</v>
       </c>
       <c r="U42" t="n">
         <v>2035.028812832841</v>
       </c>
       <c r="V42" t="n">
-        <v>1799.876704601098</v>
+        <v>1799.876704601099</v>
       </c>
       <c r="W42" t="n">
         <v>1545.639347872897</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>463.6922683233349</v>
+        <v>584.2077717513421</v>
       </c>
       <c r="C43" t="n">
-        <v>463.6922683233349</v>
+        <v>443.9547534990277</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9766803957173</v>
+        <v>322.5212787622846</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9766803957173</v>
+        <v>322.5212787622846</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9766803957173</v>
+        <v>204.3144959399668</v>
       </c>
       <c r="G43" t="n">
-        <v>272.9570084460288</v>
+        <v>204.3144959399668</v>
       </c>
       <c r="H43" t="n">
-        <v>155.4229863394791</v>
+        <v>86.78047383341713</v>
       </c>
       <c r="I43" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341713</v>
       </c>
       <c r="J43" t="n">
-        <v>160.0154759789013</v>
+        <v>160.0154759789009</v>
       </c>
       <c r="K43" t="n">
-        <v>392.1150286263259</v>
+        <v>392.1150286263255</v>
       </c>
       <c r="L43" t="n">
-        <v>736.7871967733703</v>
+        <v>736.7871967733697</v>
       </c>
       <c r="M43" t="n">
         <v>1109.056612071467</v>
@@ -7609,10 +7609,10 @@
         <v>1008.073369168344</v>
       </c>
       <c r="X43" t="n">
-        <v>808.7669829459196</v>
+        <v>929.2824863739268</v>
       </c>
       <c r="Y43" t="n">
-        <v>616.6575684779821</v>
+        <v>737.1730719059892</v>
       </c>
     </row>
     <row r="44">
@@ -7643,40 +7643,40 @@
         <v>100.0942079183558</v>
       </c>
       <c r="I44" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341709</v>
       </c>
       <c r="J44" t="n">
-        <v>443.0652538127956</v>
+        <v>275.6596047924426</v>
       </c>
       <c r="K44" t="n">
-        <v>1097.788585948095</v>
+        <v>609.478978482289</v>
       </c>
       <c r="L44" t="n">
-        <v>1548.822799196504</v>
+        <v>1060.513191730698</v>
       </c>
       <c r="M44" t="n">
-        <v>2082.354703868428</v>
+        <v>1594.045096402622</v>
       </c>
       <c r="N44" t="n">
-        <v>2629.133520927211</v>
+        <v>2573.797368629269</v>
       </c>
       <c r="O44" t="n">
-        <v>3132.105991806548</v>
+        <v>3318.365175911425</v>
       </c>
       <c r="P44" t="n">
-        <v>3845.461079253493</v>
+        <v>4031.72026335837</v>
       </c>
       <c r="Q44" t="n">
-        <v>4214.9473694398</v>
+        <v>4280.006625114052</v>
       </c>
       <c r="R44" t="n">
         <v>4339.023691670855</v>
       </c>
       <c r="S44" t="n">
-        <v>4257.416187873543</v>
+        <v>4257.416187873542</v>
       </c>
       <c r="T44" t="n">
-        <v>4080.121604933358</v>
+        <v>4080.121604933357</v>
       </c>
       <c r="U44" t="n">
         <v>3855.274292882787</v>
@@ -7685,7 +7685,7 @@
         <v>3552.894570214808</v>
       </c>
       <c r="W44" t="n">
-        <v>3228.809079620286</v>
+        <v>3228.809079620287</v>
       </c>
       <c r="X44" t="n">
         <v>2884.026486034799</v>
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>961.8122118823421</v>
+        <v>961.8122118823424</v>
       </c>
       <c r="C45" t="n">
-        <v>787.3591826012151</v>
+        <v>787.3591826012154</v>
       </c>
       <c r="D45" t="n">
-        <v>638.424772939964</v>
+        <v>638.4247729399641</v>
       </c>
       <c r="E45" t="n">
-        <v>479.1873179345084</v>
+        <v>479.1873179345086</v>
       </c>
       <c r="F45" t="n">
-        <v>332.6527599613935</v>
+        <v>332.6527599613936</v>
       </c>
       <c r="G45" t="n">
-        <v>196.289659794012</v>
+        <v>196.2896597940117</v>
       </c>
       <c r="H45" t="n">
-        <v>105.7877654318795</v>
+        <v>105.7877654318792</v>
       </c>
       <c r="I45" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341709</v>
       </c>
       <c r="J45" t="n">
-        <v>180.4577433240347</v>
+        <v>180.4577433240344</v>
       </c>
       <c r="K45" t="n">
         <v>418.7219423043816</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>789.6664103771501</v>
+        <v>464.4702038148498</v>
       </c>
       <c r="C46" t="n">
-        <v>649.4133921248357</v>
+        <v>324.2171855625354</v>
       </c>
       <c r="D46" t="n">
-        <v>649.4133921248357</v>
+        <v>324.2171855625354</v>
       </c>
       <c r="E46" t="n">
-        <v>530.1834632180352</v>
+        <v>204.9872566557349</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9766803957174</v>
+        <v>86.78047383341709</v>
       </c>
       <c r="G46" t="n">
-        <v>272.9570084460289</v>
+        <v>86.78047383341709</v>
       </c>
       <c r="H46" t="n">
-        <v>155.4229863394792</v>
+        <v>86.78047383341709</v>
       </c>
       <c r="I46" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341709</v>
       </c>
       <c r="J46" t="n">
         <v>160.0154759789009</v>
@@ -7810,7 +7810,7 @@
         <v>392.1150286263255</v>
       </c>
       <c r="L46" t="n">
-        <v>736.7871967733699</v>
+        <v>736.7871967733697</v>
       </c>
       <c r="M46" t="n">
         <v>1109.056612071467</v>
@@ -7822,7 +7822,7 @@
         <v>1806.019327094842</v>
       </c>
       <c r="P46" t="n">
-        <v>2066.73919722705</v>
+        <v>2066.739197227049</v>
       </c>
       <c r="Q46" t="n">
         <v>2172.461863078112</v>
@@ -7834,10 +7834,10 @@
         <v>1948.311851013652</v>
       </c>
       <c r="T46" t="n">
-        <v>1755.22840025877</v>
+        <v>1755.228400258771</v>
       </c>
       <c r="U46" t="n">
-        <v>1494.808698060006</v>
+        <v>1494.808698060007</v>
       </c>
       <c r="V46" t="n">
         <v>1268.807374529712</v>
@@ -7846,10 +7846,10 @@
         <v>1008.073369168344</v>
       </c>
       <c r="X46" t="n">
-        <v>808.7669829459193</v>
+        <v>808.7669829459196</v>
       </c>
       <c r="Y46" t="n">
-        <v>789.6664103771501</v>
+        <v>617.4355039694969</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>63.73389421582907</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>121.2993869296194</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>112.9397774323994</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627882</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8690,16 +8690,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>251.798206237632</v>
       </c>
       <c r="N11" t="n">
-        <v>132.9990175570125</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8708,7 +8708,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8936,19 +8936,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>354.4836849406614</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>29.61882225792094</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,10 +9176,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>285.7011105564207</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>67.53663776704263</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>57.67224444723922</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,22 +9638,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>246.454569480845</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>170.1140909277316</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>288.0478149561032</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>217.5991828955684</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,10 +9890,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>314.5564971416969</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>192.9047586887105</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>234.2545920432037</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>85.92074142583397</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,28 +10823,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>82.45676708423002</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>357.2372051770016</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,28 +11060,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>50.60444814184802</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>261.3746987980334</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11306,19 +11306,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>244.0356933361805</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>122.4241701319442</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>61.15672421333707</v>
+        <v>115.0119116157687</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>116.7469544804618</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>82.55208449419965</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.14213605696643</v>
+        <v>166.617429148383</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>188.5457575688502</v>
       </c>
       <c r="U22" t="n">
-        <v>16.14213605696598</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.8219150297616</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>71.67627119164572</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24604,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>112.5878114315664</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>16.14213605696654</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696639</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>272.321109825641</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>8.190423876391563</v>
+        <v>135.7205053053</v>
       </c>
       <c r="D34" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G34" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.3586818854842</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.53581964121069</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>190.1883203232582</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>105.504176470818</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,10 +25372,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>245.6202182624523</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>197.3133223602005</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,10 +25555,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>55.43189793919476</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>17.68287568756762</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>197.3133223602005</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>190.1883203232582</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>69.02070794103481</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>118.0376296177325</v>
       </c>
       <c r="F43" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>119.3103483937271</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151.4356471531007</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.2787534801767</v>
+        <v>0.7701561365997236</v>
       </c>
     </row>
   </sheetData>
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>753668.0381457196</v>
+        <v>753668.0381457197</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>747614.1520255528</v>
+        <v>747614.1520255529</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846415</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846413</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
-        <v>675039.0377078715</v>
+        <v>675039.0377078718</v>
       </c>
       <c r="F2" t="n">
-        <v>675039.0377078713</v>
+        <v>675039.0377078712</v>
       </c>
       <c r="G2" t="n">
-        <v>675039.0377078715</v>
+        <v>675039.0377078714</v>
       </c>
       <c r="H2" t="n">
-        <v>675039.0377078713</v>
+        <v>675039.0377078716</v>
       </c>
       <c r="I2" t="n">
         <v>675039.0377078715</v>
       </c>
       <c r="J2" t="n">
+        <v>675039.0377078711</v>
+      </c>
+      <c r="K2" t="n">
         <v>675039.0377078714</v>
       </c>
-      <c r="K2" t="n">
-        <v>675039.0377078715</v>
-      </c>
       <c r="L2" t="n">
-        <v>688849.6601559392</v>
+        <v>688849.6601559389</v>
       </c>
       <c r="M2" t="n">
-        <v>688849.6601559393</v>
+        <v>688849.6601559389</v>
       </c>
       <c r="N2" t="n">
         <v>688849.6601559392</v>
       </c>
       <c r="O2" t="n">
+        <v>688849.6601559389</v>
+      </c>
+      <c r="P2" t="n">
         <v>688849.6601559392</v>
-      </c>
-      <c r="P2" t="n">
-        <v>688849.6601559391</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>499025.2209182715</v>
+        <v>499025.220918273</v>
       </c>
       <c r="C3" t="n">
-        <v>86438.14008084203</v>
+        <v>86438.1400808406</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>155992.1587375579</v>
+        <v>155992.1587375582</v>
       </c>
       <c r="K3" t="n">
-        <v>20097.15937377303</v>
+        <v>20097.15937377305</v>
       </c>
       <c r="L3" t="n">
-        <v>22717.0664230693</v>
+        <v>22717.06642306931</v>
       </c>
       <c r="M3" t="n">
-        <v>102290.4294952597</v>
+        <v>102290.4294952598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>225434.3403095044</v>
+        <v>225434.340309504</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26427,37 +26427,37 @@
         <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499377</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="H4" t="n">
+        <v>25090.72367499385</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25090.72367499383</v>
+      </c>
+      <c r="J4" t="n">
+        <v>25090.72367499383</v>
+      </c>
+      <c r="K4" t="n">
         <v>25090.72367499379</v>
       </c>
-      <c r="I4" t="n">
-        <v>25090.72367499382</v>
-      </c>
-      <c r="J4" t="n">
-        <v>25090.72367499382</v>
-      </c>
-      <c r="K4" t="n">
-        <v>25090.72367499382</v>
-      </c>
       <c r="L4" t="n">
-        <v>34434.53238771017</v>
+        <v>34434.53238771018</v>
       </c>
       <c r="M4" t="n">
-        <v>47680.74001500159</v>
+        <v>47680.74001500155</v>
       </c>
       <c r="N4" t="n">
         <v>47680.74001500155</v>
       </c>
       <c r="O4" t="n">
-        <v>47680.74001500155</v>
+        <v>47680.74001500156</v>
       </c>
       <c r="P4" t="n">
-        <v>47680.74001500156</v>
+        <v>47680.74001500161</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76645.98271336555</v>
+        <v>76645.98271336567</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26500,13 +26500,13 @@
         <v>98770.76957511491</v>
       </c>
       <c r="M5" t="n">
-        <v>92097.54350773216</v>
+        <v>92097.54350773219</v>
       </c>
       <c r="N5" t="n">
-        <v>92097.54350773216</v>
+        <v>92097.54350773219</v>
       </c>
       <c r="O5" t="n">
-        <v>92097.54350773216</v>
+        <v>92097.54350773219</v>
       </c>
       <c r="P5" t="n">
         <v>92097.54350773216</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-103220.0395565005</v>
+        <v>-103220.0395565011</v>
       </c>
       <c r="C6" t="n">
-        <v>327523.7803126581</v>
+        <v>327523.7803126596</v>
       </c>
       <c r="D6" t="n">
-        <v>413961.9203935004</v>
+        <v>413961.9203935002</v>
       </c>
       <c r="E6" t="n">
-        <v>-173812.6182142426</v>
+        <v>-173879.8137044682</v>
       </c>
       <c r="F6" t="n">
-        <v>553564.7957791639</v>
+        <v>553497.6002889379</v>
       </c>
       <c r="G6" t="n">
-        <v>553564.7957791641</v>
+        <v>553497.6002889381</v>
       </c>
       <c r="H6" t="n">
-        <v>553564.7957791638</v>
+        <v>553497.6002889384</v>
       </c>
       <c r="I6" t="n">
-        <v>553564.7957791641</v>
+        <v>553497.6002889383</v>
       </c>
       <c r="J6" t="n">
-        <v>397572.6370416061</v>
+        <v>397505.4415513796</v>
       </c>
       <c r="K6" t="n">
-        <v>533467.636405391</v>
+        <v>533400.4409151651</v>
       </c>
       <c r="L6" t="n">
-        <v>532927.2917700447</v>
+        <v>532900.7157576071</v>
       </c>
       <c r="M6" t="n">
-        <v>446780.9471379459</v>
+        <v>446754.3711255081</v>
       </c>
       <c r="N6" t="n">
-        <v>549071.3766332055</v>
+        <v>549044.8006207681</v>
       </c>
       <c r="O6" t="n">
-        <v>549071.3766332055</v>
+        <v>549044.8006207679</v>
       </c>
       <c r="P6" t="n">
-        <v>549071.3766332052</v>
+        <v>549044.8006207681</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="M2" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="N2" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="O2" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="P2" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>310.5239143859982</v>
+        <v>310.5239143859993</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26762,7 +26762,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>596.2000226932697</v>
+        <v>596.200022693271</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>310.5239143859982</v>
+        <v>310.5239143859993</v>
       </c>
       <c r="C3" t="n">
-        <v>67.21974983108851</v>
+        <v>67.21974983108737</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>596.2000226932697</v>
+        <v>596.200022693271</v>
       </c>
       <c r="C4" t="n">
-        <v>78.08725006128589</v>
+        <v>78.08725006128468</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>596.2000226932697</v>
+        <v>596.200022693271</v>
       </c>
       <c r="K4" t="n">
-        <v>78.08725006128589</v>
+        <v>78.08725006128468</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>410.4686501631583</v>
+        <v>410.4686501631586</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>596.2000226932697</v>
+        <v>596.200022693271</v>
       </c>
       <c r="K4" t="n">
-        <v>78.08725006128589</v>
+        <v>78.08725006128468</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>326.6902672888099</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>158.6189390316209</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>31.13109471829767</v>
       </c>
     </row>
     <row r="3">
@@ -27461,22 +27461,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.184867584886291</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.7847493357609</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66.40028636150861</v>
+        <v>66.40028636150852</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>58.68824422766004</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39.08135780222008</v>
       </c>
     </row>
     <row r="4">
@@ -27555,10 +27555,10 @@
         <v>157.2486087653165</v>
       </c>
       <c r="I4" t="n">
-        <v>138.6109157667848</v>
+        <v>138.6109157667847</v>
       </c>
       <c r="J4" t="n">
-        <v>53.76992631044478</v>
+        <v>53.76992631044464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.27293217940866</v>
+        <v>39.27293217940849</v>
       </c>
       <c r="R4" t="n">
-        <v>152.1155015320359</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>214.2580022356942</v>
@@ -27591,19 +27591,19 @@
         <v>225.5530281207172</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2884860206497</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>128.4179040508093</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>156.9129378751242</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>348.6673132808189</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>353.6695123927814</v>
       </c>
     </row>
     <row r="6">
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27828,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>243.5913466674047</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>339.5382092338688</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>92.48190207837939</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="C34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="D34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="E34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="F34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="G34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="H34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="I34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="J34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="K34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="L34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="M34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="N34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="O34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="P34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="R34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="S34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="T34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="U34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="V34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="W34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="X34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="C35" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="D35" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="E35" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="F35" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="G35" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="H35" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="I35" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="T35" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="U35" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="V35" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883482</v>
       </c>
       <c r="W35" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="X35" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Y35" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="C37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="D37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="E37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="F37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="G37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="H37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="I37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="J37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="K37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="L37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="M37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="N37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="O37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="P37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="R37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="S37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="T37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="U37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="V37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="W37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="X37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="C38" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="D38" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="E38" t="n">
-        <v>28.39633302883662</v>
+        <v>28.3963330288347</v>
       </c>
       <c r="F38" t="n">
-        <v>28.39633302883567</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="G38" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="H38" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="I38" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="T38" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="U38" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="V38" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="W38" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="X38" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Y38" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="C40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="D40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="E40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="F40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="G40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="H40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="I40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="J40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="K40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="L40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="M40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="N40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="O40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="P40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="R40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="S40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="T40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="U40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="V40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="W40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="X40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="C41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="D41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="E41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="F41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="G41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="H41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="I41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="T41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883507</v>
       </c>
       <c r="U41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="V41" t="n">
-        <v>28.39633302883573</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="W41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="X41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Y41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="C43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="D43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="E43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="F43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="G43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="H43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="I43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="J43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="K43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="L43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="M43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="N43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="O43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="P43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="R43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="S43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="T43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="U43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="V43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="W43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="X43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="C44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="D44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="E44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="F44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="G44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="H44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="I44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="T44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="U44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="V44" t="n">
-        <v>28.39633302883573</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="W44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="X44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Y44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="C46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="D46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="E46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="F46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="G46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="H46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="I46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="J46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="K46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="L46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="M46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="N46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="O46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="P46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="R46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="S46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="T46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="U46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="V46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="W46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="X46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883664</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.248337344265318</v>
+        <v>1.248337344265323</v>
       </c>
       <c r="H2" t="n">
-        <v>12.7845348269572</v>
+        <v>12.78453482695724</v>
       </c>
       <c r="I2" t="n">
-        <v>48.12652546478873</v>
+        <v>48.12652546478891</v>
       </c>
       <c r="J2" t="n">
-        <v>105.9510716728387</v>
+        <v>105.951071672839</v>
       </c>
       <c r="K2" t="n">
-        <v>158.7931914555896</v>
+        <v>158.7931914555902</v>
       </c>
       <c r="L2" t="n">
-        <v>196.9969954551494</v>
+        <v>196.9969954551501</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1971147012277</v>
+        <v>219.1971147012285</v>
       </c>
       <c r="N2" t="n">
-        <v>222.7439531806216</v>
+        <v>222.7439531806224</v>
       </c>
       <c r="O2" t="n">
-        <v>210.3307987135833</v>
+        <v>210.3307987135841</v>
       </c>
       <c r="P2" t="n">
-        <v>179.5124705270333</v>
+        <v>179.5124705270339</v>
       </c>
       <c r="Q2" t="n">
-        <v>134.8063893855315</v>
+        <v>134.806389385532</v>
       </c>
       <c r="R2" t="n">
-        <v>78.41587070170638</v>
+        <v>78.41587070170667</v>
       </c>
       <c r="S2" t="n">
-        <v>28.44648723244597</v>
+        <v>28.44648723244607</v>
       </c>
       <c r="T2" t="n">
-        <v>5.464596724521434</v>
+        <v>5.464596724521454</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09986698754122544</v>
+        <v>0.09986698754122582</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6679193630189395</v>
+        <v>0.6679193630189419</v>
       </c>
       <c r="H3" t="n">
-        <v>6.450694900735549</v>
+        <v>6.450694900735572</v>
       </c>
       <c r="I3" t="n">
-        <v>22.99634648990647</v>
+        <v>22.99634648990656</v>
       </c>
       <c r="J3" t="n">
-        <v>63.10373245083763</v>
+        <v>63.10373245083785</v>
       </c>
       <c r="K3" t="n">
-        <v>107.8543297731066</v>
+        <v>107.854329773107</v>
       </c>
       <c r="L3" t="n">
-        <v>145.0234564309325</v>
+        <v>145.023456430933</v>
       </c>
       <c r="M3" t="n">
-        <v>169.235533340369</v>
+        <v>169.2355333403696</v>
       </c>
       <c r="N3" t="n">
-        <v>173.7146943318425</v>
+        <v>173.7146943318432</v>
       </c>
       <c r="O3" t="n">
-        <v>158.9150073933702</v>
+        <v>158.9150073933708</v>
       </c>
       <c r="P3" t="n">
-        <v>127.5433036277131</v>
+        <v>127.5433036277136</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.25932079518955</v>
+        <v>85.25932079518986</v>
       </c>
       <c r="R3" t="n">
-        <v>41.46958992498294</v>
+        <v>41.4695899249831</v>
       </c>
       <c r="S3" t="n">
-        <v>12.40630922098775</v>
+        <v>12.4063092209878</v>
       </c>
       <c r="T3" t="n">
-        <v>2.692183748308794</v>
+        <v>2.692183748308805</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04394206335650919</v>
+        <v>0.04394206335650935</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5599611570895049</v>
+        <v>0.5599611570895069</v>
       </c>
       <c r="H4" t="n">
-        <v>4.978563742123056</v>
+        <v>4.978563742123074</v>
       </c>
       <c r="I4" t="n">
-        <v>16.83955916047348</v>
+        <v>16.83955916047354</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58925380622799</v>
+        <v>39.58925380622814</v>
       </c>
       <c r="K4" t="n">
-        <v>65.05730534185336</v>
+        <v>65.05730534185361</v>
       </c>
       <c r="L4" t="n">
-        <v>83.25095239128876</v>
+        <v>83.25095239128908</v>
       </c>
       <c r="M4" t="n">
-        <v>87.77645665176665</v>
+        <v>87.77645665176696</v>
       </c>
       <c r="N4" t="n">
-        <v>85.68932870261493</v>
+        <v>85.68932870261524</v>
       </c>
       <c r="O4" t="n">
-        <v>79.14796427661477</v>
+        <v>79.14796427661506</v>
       </c>
       <c r="P4" t="n">
-        <v>67.72475667198881</v>
+        <v>67.72475667198907</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.88911107228572</v>
+        <v>46.88911107228589</v>
       </c>
       <c r="R4" t="n">
-        <v>25.17788984513355</v>
+        <v>25.17788984513364</v>
       </c>
       <c r="S4" t="n">
-        <v>9.758595801278004</v>
+        <v>9.758595801278039</v>
       </c>
       <c r="T4" t="n">
-        <v>2.392561307564248</v>
+        <v>2.392561307564256</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03054333584124575</v>
+        <v>0.03054333584124587</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33181,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J30" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33503,7 +33503,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026435</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34214,7 +34214,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.00178231822615</v>
+        <v>94.00178231822653</v>
       </c>
       <c r="K2" t="n">
-        <v>262.8487529817738</v>
+        <v>262.8487529817744</v>
       </c>
       <c r="L2" t="n">
-        <v>378.8917950356126</v>
+        <v>378.8917950356133</v>
       </c>
       <c r="M2" t="n">
-        <v>438.3644149667875</v>
+        <v>438.3644149667883</v>
       </c>
       <c r="N2" t="n">
-        <v>430.6778139960148</v>
+        <v>430.6778139960156</v>
       </c>
       <c r="O2" t="n">
-        <v>361.032768554642</v>
+        <v>361.0327685546428</v>
       </c>
       <c r="P2" t="n">
-        <v>270.0781829432464</v>
+        <v>270.078182943247</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.8156901709867</v>
+        <v>124.8156901709872</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.35714112458</v>
       </c>
       <c r="K3" t="n">
-        <v>91.31227772836699</v>
+        <v>234.4781278113265</v>
       </c>
       <c r="L3" t="n">
-        <v>377.3094219545175</v>
+        <v>377.309421954518</v>
       </c>
       <c r="M3" t="n">
-        <v>492.8065631683506</v>
+        <v>492.8065631683512</v>
       </c>
       <c r="N3" t="n">
-        <v>521.7153565920628</v>
+        <v>521.7153565920634</v>
       </c>
       <c r="O3" t="n">
-        <v>410.1810822256553</v>
+        <v>410.1810822256559</v>
       </c>
       <c r="P3" t="n">
-        <v>312.03166485332</v>
+        <v>106.5086736457828</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.3548344450171</v>
+        <v>155.3548344450174</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>42.78781351597051</v>
+        <v>42.78781351597075</v>
       </c>
       <c r="L4" t="n">
-        <v>110.8409776516049</v>
+        <v>110.8409776516052</v>
       </c>
       <c r="M4" t="n">
-        <v>127.3603336136072</v>
+        <v>127.3603336136076</v>
       </c>
       <c r="N4" t="n">
-        <v>129.8215010818435</v>
+        <v>129.8215010818438</v>
       </c>
       <c r="O4" t="n">
-        <v>103.7330921906544</v>
+        <v>103.7330921906547</v>
       </c>
       <c r="P4" t="n">
-        <v>65.0033159368823</v>
+        <v>65.00331593688256</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307148</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>790.7193220678586</v>
       </c>
       <c r="N11" t="n">
-        <v>685.300852969924</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
@@ -35656,19 +35656,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>862.5366858288805</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>89.23202080014572</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>684.4630967757926</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>575.5896386552618</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>117.2854429894639</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597766</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>754.5075703690641</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>568.8760771471033</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>625.2391015115037</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>673.1892972879003</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>713.3184833610688</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O31" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>443.69906349243</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37151,7 +37151,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.97474964190285</v>
+        <v>73.97474964190286</v>
       </c>
       <c r="K34" t="n">
         <v>234.4439925731562</v>
@@ -37236,7 +37236,7 @@
         <v>376.0297124223205</v>
       </c>
       <c r="N34" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963768</v>
       </c>
       <c r="O34" t="n">
         <v>330.7494632514764</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37318,16 +37318,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>742.3075929314228</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>484.6827276452058</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597675</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.97474964190285</v>
+        <v>73.97474964190286</v>
       </c>
       <c r="K37" t="n">
         <v>234.4439925731562</v>
@@ -37473,7 +37473,7 @@
         <v>376.0297124223205</v>
       </c>
       <c r="N37" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963768</v>
       </c>
       <c r="O37" t="n">
         <v>330.7494632514764</v>
@@ -37543,28 +37543,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>419.6480536396305</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>812.8273195693338</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.97474964190285</v>
+        <v>73.97474964190286</v>
       </c>
       <c r="K40" t="n">
         <v>234.4439925731562</v>
@@ -37710,7 +37710,7 @@
         <v>376.0297124223205</v>
       </c>
       <c r="N40" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963768</v>
       </c>
       <c r="O40" t="n">
         <v>330.7494632514764</v>
@@ -37780,28 +37780,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>558.6574490300671</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>660.1366850174053</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.97474964190285</v>
+        <v>73.97474964190286</v>
       </c>
       <c r="K43" t="n">
         <v>234.4439925731562</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38026,19 +38026,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>752.0886942243997</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>373.2184749356637</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.97474964190285</v>
+        <v>73.97474964190286</v>
       </c>
       <c r="K46" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L46" t="n">
-        <v>348.1537051990348</v>
+        <v>348.1537051990347</v>
       </c>
       <c r="M46" t="n">
         <v>376.0297124223205</v>
       </c>
       <c r="N46" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963768</v>
       </c>
       <c r="O46" t="n">
         <v>330.7494632514764</v>
